--- a/Inventory/Templates/TemplateInventoryGraphicsCards.xlsx
+++ b/Inventory/Templates/TemplateInventoryGraphicsCards.xlsx
@@ -5,25 +5,25 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Inventory\Inventory\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F314BB-73EF-4D89-8C73-E63D61B465FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7991CE7-7F18-4D31-99BB-8A684461E296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="InventoryGraphicsCards">Sheet1!$A$3:$F$4</definedName>
+    <definedName name="InventoryGraphicsCards">Sheet1!$A$3:$E$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>{{item.Inventory_number}}</t>
   </si>
@@ -40,19 +40,13 @@
     <t>Объём</t>
   </si>
   <si>
-    <t>Единица измерения</t>
-  </si>
-  <si>
     <t>{{item.Graphics_cards.Manufacturer.Name}}</t>
   </si>
   <si>
     <t>{{item.Graphics_cards.Name}}</t>
   </si>
   <si>
-    <t>{{item.Graphics_cards.Memory_size}}</t>
-  </si>
-  <si>
-    <t>{{item.Graphics_cards.Unit.Full_name}}</t>
+    <t>{{item.Graphics_cards.Memory_size}} {{item.Graphics_cards.Unit.Short_name}}</t>
   </si>
 </sst>
 </file>
@@ -594,10 +588,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -605,14 +599,13 @@
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -625,29 +618,23 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
